--- a/form4/V2_grs_atualizado_form4.xlsx
+++ b/form4/V2_grs_atualizado_form4.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="11.24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="12.24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="01.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="02.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="03.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="04.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="05.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="06.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="07.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="08.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="09.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="10.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="11.25" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="12.25" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="outliers" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="09.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.25" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.25" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="outliers" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
